--- a/sample_data/annotation/8141_labels_review_XY.xlsx
+++ b/sample_data/annotation/8141_labels_review_XY.xlsx
@@ -1170,12 +1170,12 @@
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
-          <t>Strassen_und_Gehsteige</t>
+          <t>Lage_Gelaende_Planzeichen</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t>GehsteigbreiteMin</t>
+          <t>AnFluchtlinie</t>
         </is>
       </c>
       <c r="F11" s="19" t="n">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="I11" s="19" t="inlineStr">
         <is>
-          <t>Lage_Gelaende_Planzeichen</t>
+          <t>Strassen_und_Gehsteige</t>
         </is>
       </c>
       <c r="J11" s="19" t="inlineStr">
         <is>
-          <t>AnFluchtlinie</t>
+          <t>GehsteigbreiteMin</t>
         </is>
       </c>
       <c r="K11" s="19" t="n">
@@ -1216,6 +1216,54 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="N11" s="19" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="O11" s="19" t="inlineStr">
+        <is>
+          <t>AnFluchtlinie</t>
+        </is>
+      </c>
+      <c r="P11" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S11" s="19" t="inlineStr">
+        <is>
+          <t>Strassen_und_Gehsteige</t>
+        </is>
+      </c>
+      <c r="T11" s="19" t="inlineStr">
+        <is>
+          <t>GehsteigbreiteMin</t>
+        </is>
+      </c>
+      <c r="U11" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="75" customHeight="1" s="16">
       <c r="A12" t="inlineStr">
@@ -1251,6 +1299,29 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="I12" s="19" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="J12" s="19" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="K12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="75" customHeight="1" s="16">
       <c r="A13" t="inlineStr">
@@ -1263,20 +1334,20 @@
           <t>Der höchste Punkt der zur Errichtung gelangenden Dächer darf die ausgeführte Gebäudehöhe um höchstens 4,5 m überragen.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Hoehe</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GebaeudeHoeheArt</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>AbschlussDachMaxBezugGebaeude</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="20" t="inlineStr">
         <is>
           <t>01
 02</t>
@@ -1287,20 +1358,20 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I13" s="20" t="inlineStr">
-        <is>
-          <t>Dach</t>
-        </is>
-      </c>
-      <c r="J13" s="20" t="inlineStr">
-        <is>
-          <t>AbschlussDachMaxBezugGebaeude</t>
-        </is>
-      </c>
-      <c r="K13" s="20" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Hoehe</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>GebaeudeHoeheArt</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="20" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>01
 02</t>
@@ -1325,12 +1396,12 @@
       </c>
       <c r="D14" s="19" t="inlineStr">
         <is>
-          <t>Flaeche</t>
+          <t>Dach</t>
         </is>
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t>Flaechen</t>
+          <t>BegruenungDach</t>
         </is>
       </c>
       <c r="F14" s="19" t="n">
@@ -1373,12 +1444,12 @@
       </c>
       <c r="N14" s="19" t="inlineStr">
         <is>
-          <t>Dach</t>
+          <t>Flaeche</t>
         </is>
       </c>
       <c r="O14" s="19" t="inlineStr">
         <is>
-          <t>BegruenungDach</t>
+          <t>Flaechen</t>
         </is>
       </c>
       <c r="P14" s="19" t="n">
@@ -1395,6 +1466,78 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="T14" s="19" t="inlineStr">
+        <is>
+          <t>BegruenungDach</t>
+        </is>
+      </c>
+      <c r="U14" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X14" s="19" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="Y14" s="19" t="inlineStr">
+        <is>
+          <t>DachneigungMax</t>
+        </is>
+      </c>
+      <c r="Z14" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC14" s="19" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="AD14" s="19" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="AE14" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="75" customHeight="1" s="16">
       <c r="A15" t="inlineStr">
@@ -1431,48 +1574,48 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Nutzung_Widmung</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>WidmungUndZweckbestimmung</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="I15" s="20" t="inlineStr">
         <is>
           <t>Ausgestaltung_und_Sonstiges</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="J15" s="20" t="inlineStr">
         <is>
           <t>GebaeudeBautyp</t>
         </is>
       </c>
-      <c r="P15" s="20" t="n">
+      <c r="K15" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
+      <c r="L15" s="20" t="inlineStr">
         <is>
           <t>01
 02</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Nutzung_Widmung</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>WidmungUndZweckbestimmung</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
           <t>OK</t>
@@ -1492,12 +1635,12 @@
       </c>
       <c r="D16" s="20" t="inlineStr">
         <is>
-          <t>Flaeche</t>
+          <t>Dach</t>
         </is>
       </c>
       <c r="E16" s="20" t="inlineStr">
         <is>
-          <t>Flaechen</t>
+          <t>BegruenungDach</t>
         </is>
       </c>
       <c r="F16" s="20" t="n">
@@ -1521,7 +1664,7 @@
       </c>
       <c r="J16" s="20" t="inlineStr">
         <is>
-          <t>BegruenungDach</t>
+          <t>Dachart</t>
         </is>
       </c>
       <c r="K16" s="20" t="n">
@@ -1540,12 +1683,12 @@
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>Dach</t>
+          <t>Flaeche</t>
         </is>
       </c>
       <c r="O16" s="20" t="inlineStr">
         <is>
-          <t>Dachart</t>
+          <t>Flaechen</t>
         </is>
       </c>
       <c r="P16" s="20" t="n">
@@ -1600,82 +1743,82 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AusnahmeGaertnerischAuszugestaltende</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Flaeche</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Flaechen</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="K17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>01
 02</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I17" s="20" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N17" s="20" t="inlineStr">
         <is>
           <t>Ausgestaltung_und_Sonstiges</t>
         </is>
       </c>
-      <c r="J17" s="20" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>AnordnungGaertnerischeAusgestaltung</t>
         </is>
       </c>
-      <c r="K17" s="20" t="n">
+      <c r="P17" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="20" t="inlineStr">
+      <c r="Q17" s="20" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>Nutzung_Widmung</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>WidmungUndZweckbestimmung</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Ausgestaltung_und_Sonstiges</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>AusnahmeGaertnerischAuszugestaltende</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1683,7 +1826,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1787,6 +1930,30 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="I19" s="19" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="J19" s="19" t="inlineStr">
+        <is>
+          <t>EinleitungNiederschlagswaesser</t>
+        </is>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="75" customHeight="1" s="16">
       <c r="A20" t="inlineStr">
@@ -1822,6 +1989,29 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="I20" s="19" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="J20" s="19" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="K20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="75" customHeight="1" s="16">
       <c r="A21" t="inlineStr">
@@ -1836,12 +2026,12 @@
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>Ausgestaltung_und_Sonstiges</t>
+          <t>Lage_Gelaende_Planzeichen</t>
         </is>
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t>UnterbrechungGeschlosseneBauweise</t>
+          <t>Planzeichen</t>
         </is>
       </c>
       <c r="F21" s="19" t="n">
@@ -1860,12 +2050,12 @@
       </c>
       <c r="I21" s="19" t="inlineStr">
         <is>
-          <t>Lage_Gelaende_Planzeichen</t>
+          <t>Ausgestaltung_und_Sonstiges</t>
         </is>
       </c>
       <c r="J21" s="19" t="inlineStr">
         <is>
-          <t>Planzeichen</t>
+          <t>UnterbrechungGeschlosseneBauweise</t>
         </is>
       </c>
       <c r="K21" s="19" t="n">
@@ -1882,6 +2072,54 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="N21" s="19" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="O21" s="19" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="P21" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S21" s="19" t="inlineStr">
+        <is>
+          <t>Ausgestaltung_und_Sonstiges</t>
+        </is>
+      </c>
+      <c r="T21" s="19" t="inlineStr">
+        <is>
+          <t>UnterbrechungGeschlosseneBauweise</t>
+        </is>
+      </c>
+      <c r="U21" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="75" customHeight="1" s="16">
       <c r="A22" t="inlineStr">
@@ -1896,12 +2134,12 @@
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>Flaeche</t>
+          <t>Dach</t>
         </is>
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t>Flaechen</t>
+          <t>BegruenungDach</t>
         </is>
       </c>
       <c r="F22" s="19" t="n">
@@ -1925,7 +2163,7 @@
       </c>
       <c r="J22" s="19" t="inlineStr">
         <is>
-          <t>BegruenungDach</t>
+          <t>Dachart</t>
         </is>
       </c>
       <c r="K22" s="19" t="n">
@@ -1944,12 +2182,12 @@
       </c>
       <c r="N22" s="19" t="inlineStr">
         <is>
-          <t>Dach</t>
+          <t>Flaeche</t>
         </is>
       </c>
       <c r="O22" s="19" t="inlineStr">
         <is>
-          <t>Dachart</t>
+          <t>Flaechen</t>
         </is>
       </c>
       <c r="P22" s="19" t="n">
@@ -1986,6 +2224,102 @@
         </is>
       </c>
       <c r="W22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X22" s="19" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="Y22" s="19" t="inlineStr">
+        <is>
+          <t>BegruenungDach</t>
+        </is>
+      </c>
+      <c r="Z22" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC22" s="19" t="inlineStr">
+        <is>
+          <t>Dach</t>
+        </is>
+      </c>
+      <c r="AD22" s="19" t="inlineStr">
+        <is>
+          <t>Dachart</t>
+        </is>
+      </c>
+      <c r="AE22" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AH22" s="19" t="inlineStr">
+        <is>
+          <t>Flaeche</t>
+        </is>
+      </c>
+      <c r="AI22" s="19" t="inlineStr">
+        <is>
+          <t>Flaechen</t>
+        </is>
+      </c>
+      <c r="AJ22" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AM22" s="19" t="inlineStr">
+        <is>
+          <t>Lage_Gelaende_Planzeichen</t>
+        </is>
+      </c>
+      <c r="AN22" s="19" t="inlineStr">
+        <is>
+          <t>Planzeichen</t>
+        </is>
+      </c>
+      <c r="AO22" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="19" t="inlineStr">
+        <is>
+          <t>01
+02</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
